--- a/attd_report.xlsx
+++ b/attd_report.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>DGD ENTERPRISES</t>
   </si>
   <si>
-    <t>Employee Attendance Report of Week 3 - 2020</t>
+    <t>Employee Attendance Report of Week 7 - 2020</t>
   </si>
   <si>
     <t>AKSHAY M NAIR (DW19101)</t>
@@ -44,106 +44,58 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>13-Jan-2020</t>
+    <t>10-Feb-2020</t>
   </si>
   <si>
     <t>Mon</t>
   </si>
   <si>
-    <t>8:36 PM</t>
-  </si>
-  <si>
-    <t>3:36 AM</t>
-  </si>
-  <si>
-    <t>CUSTOMER SITE</t>
-  </si>
-  <si>
-    <t>Leave</t>
-  </si>
-  <si>
-    <t>14-Jan-2020</t>
+    <t>--</t>
+  </si>
+  <si>
+    <t>11-Feb-2020</t>
   </si>
   <si>
     <t>Tue</t>
   </si>
   <si>
-    <t>10:39 PM</t>
+    <t>12-Feb-2020</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>13-Feb-2020</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>14-Feb-2020</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>15-Feb-2020</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>16-Feb-2020</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>9:00 AM</t>
   </si>
   <si>
     <t>6:00 PM</t>
   </si>
   <si>
     <t>WEEKLY OFF</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>15-Jan-2020</t>
-  </si>
-  <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>8:44 AM</t>
-  </si>
-  <si>
-    <t>SICK LEAVE</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>16-Jan-2020</t>
-  </si>
-  <si>
-    <t>Thu</t>
-  </si>
-  <si>
-    <t>2:09 AM</t>
-  </si>
-  <si>
-    <t>2:09 PM</t>
-  </si>
-  <si>
-    <t>PRIVILAGE LEAVE</t>
-  </si>
-  <si>
-    <t>17-Jan-2020</t>
-  </si>
-  <si>
-    <t>Fri</t>
-  </si>
-  <si>
-    <t>2:13 AM</t>
-  </si>
-  <si>
-    <t>2:13 PM</t>
-  </si>
-  <si>
-    <t>CASUAL LEAVE</t>
-  </si>
-  <si>
-    <t>Rest</t>
-  </si>
-  <si>
-    <t>18-Jan-2020</t>
-  </si>
-  <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>19-Jan-2020</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>9:00 AM</t>
   </si>
   <si>
     <t>Signature</t>
@@ -182,9 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,212 +478,220 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.140869" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" customHeight="1" ht="30">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
